--- a/附件/商品换算表.xlsx
+++ b/附件/商品换算表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wannianDML\Documents\Paradox Interactive\Victoria 3\mod\维多利亚的异星工厂（Factorio）\附件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wannianDML\Documents\Paradox Interactive\Victoria 3\mod\victorias_factorio\附件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B091E01-FA21-45EA-AC2F-48105ABB3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC7136D-C9F7-4AF1-9BC8-93330FE6B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="174">
   <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,6 +698,30 @@
   </si>
   <si>
     <t>1机器人指令平台 50物流机器人 50建设机器人/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1一级速度插件 1一级产能插件 1一级节能插件/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级速度插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级产能插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级节能插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.5铁 10塑料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142.5铁 15煤炭 30.6油</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1087,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA62"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1652,7 +1676,7 @@
         <v>0.04</v>
       </c>
       <c r="S17" s="9">
-        <f t="shared" si="0"/>
+        <f>ROUND((L17*B$8+(M17/1000)*H$14+O17)/Q17,2)</f>
         <v>59.56</v>
       </c>
     </row>
@@ -2439,17 +2463,32 @@
       <c r="J41" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
+      <c r="K41" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="O41" s="8">
+        <f>S62+S63+S64</f>
+        <v>7531.7999999999993</v>
+      </c>
+      <c r="P41" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>100</v>
+      </c>
       <c r="R41" s="8"/>
-      <c r="S41" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="S41" s="8">
+        <f t="shared" si="0"/>
+        <v>75.319999999999993</v>
       </c>
     </row>
     <row r="42" spans="10:19" x14ac:dyDescent="0.2">
@@ -3048,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="9">
-        <f t="shared" ref="S59:S62" si="2">ROUND((L59*B$8+(M59/1000)*H$14+O59)/Q59,2)</f>
+        <f t="shared" ref="S59:S64" si="2">ROUND((L59*B$8+(M59/1000)*H$14+O59)/Q59,2)</f>
         <v>2412.0700000000002</v>
       </c>
     </row>
@@ -3121,9 +3160,105 @@
       </c>
     </row>
     <row r="62" spans="10:19" x14ac:dyDescent="0.2">
-      <c r="S62" s="9" t="e">
+      <c r="J62" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L62" s="9">
+        <v>15</v>
+      </c>
+      <c r="M62" s="9">
+        <v>0</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="O62" s="9">
+        <f>47.5*H11+10*S17</f>
+        <v>2495.6</v>
+      </c>
+      <c r="P62" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>1</v>
+      </c>
+      <c r="R62" s="9">
+        <v>0</v>
+      </c>
+      <c r="S62" s="9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2510.6</v>
+      </c>
+    </row>
+    <row r="63" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="J63" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L63" s="9">
+        <v>15</v>
+      </c>
+      <c r="M63" s="9">
+        <v>0</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="O63" s="9">
+        <f>47.5*H11+10*S17</f>
+        <v>2495.6</v>
+      </c>
+      <c r="P63" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>1</v>
+      </c>
+      <c r="R63" s="9">
+        <v>0</v>
+      </c>
+      <c r="S63" s="9">
+        <f t="shared" si="2"/>
+        <v>2510.6</v>
+      </c>
+    </row>
+    <row r="64" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="J64" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L64" s="9">
+        <v>15</v>
+      </c>
+      <c r="M64" s="9">
+        <v>0</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="O64" s="9">
+        <f>47.5*H11+10*S17</f>
+        <v>2495.6</v>
+      </c>
+      <c r="P64" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="9">
+        <v>1</v>
+      </c>
+      <c r="R64" s="9">
+        <v>0</v>
+      </c>
+      <c r="S64" s="9">
+        <f t="shared" si="2"/>
+        <v>2510.6</v>
       </c>
     </row>
   </sheetData>
